--- a/data/trans_dic/P57B_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P57B_R-Dificultad-trans_dic.xlsx
@@ -567,10 +567,10 @@
         <v>0.2694537056433401</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.3066337029372922</v>
+        <v>0.3066337029372923</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.2900406877402618</v>
+        <v>0.2900406877402617</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2300896951869063</v>
+        <v>0.2336470321036581</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2750825631354667</v>
+        <v>0.2742239122042623</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2646682839511318</v>
+        <v>0.2645272746207208</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3132482976726217</v>
+        <v>0.3161578273730601</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3395222716814767</v>
+        <v>0.3395211104006312</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3163638402290805</v>
+        <v>0.3169732800903033</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.1038143183703831</v>
+        <v>0.103814318370383</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.1570245754501366</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.08650667517627114</v>
+        <v>0.08616842328907498</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.140079592129512</v>
+        <v>0.1378127930407972</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.120529155524904</v>
+        <v>0.1198214914709427</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.125533685476374</v>
+        <v>0.1245117913813999</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1759292152814635</v>
+        <v>0.1733323165291944</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1464150821898799</v>
+        <v>0.1449224580461555</v>
       </c>
     </row>
     <row r="10">
@@ -674,13 +674,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.05754200233856111</v>
+        <v>0.0575420023385611</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.09274006750230726</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.07510840317702996</v>
+        <v>0.07510840317702995</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.0441932684115143</v>
+        <v>0.045108879957703</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07753384753264553</v>
+        <v>0.07805454021039393</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06614505134274277</v>
+        <v>0.06509572650985185</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.07447844593893224</v>
+        <v>0.07330834560780673</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1074006776531494</v>
+        <v>0.1070323381677979</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08645473772304528</v>
+        <v>0.08509692428696335</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>0.06363365534952373</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.09256713118438158</v>
+        <v>0.09256713118438159</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.07758713710495937</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0483115427850276</v>
+        <v>0.0489714190006816</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.07744240313429683</v>
+        <v>0.07860527893880204</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.06684037602650744</v>
+        <v>0.06765992545267209</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.08360819012476065</v>
+        <v>0.08312831236153817</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1109705775252874</v>
+        <v>0.1103057396695869</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.08967733703615126</v>
+        <v>0.0895713188109529</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.09171497276487985</v>
+        <v>0.09246928028003588</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1380980686709331</v>
+        <v>0.1382413788849693</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1190028649584595</v>
+        <v>0.1186231718237389</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1125563023388486</v>
+        <v>0.112355659218874</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1578390382547903</v>
+        <v>0.158427534903095</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.132858128770374</v>
+        <v>0.1328082039442748</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>112639</v>
+        <v>114381</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>167079</v>
+        <v>166558</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>290320</v>
+        <v>290166</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>153349</v>
+        <v>154773</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>206218</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>347026</v>
+        <v>347695</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>81934</v>
+        <v>81614</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>153882</v>
+        <v>151391</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>246563</v>
+        <v>245115</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>118898</v>
+        <v>117930</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>193264</v>
+        <v>190411</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>299517</v>
+        <v>296464</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>45719</v>
+        <v>46666</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>79913</v>
+        <v>80450</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>136603</v>
+        <v>134436</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>77049</v>
+        <v>75839</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>110696</v>
+        <v>110317</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>178546</v>
+        <v>175742</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>46672</v>
+        <v>47309</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>69687</v>
+        <v>70734</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>124719</v>
+        <v>126248</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>80771</v>
+        <v>80307</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>99858</v>
+        <v>99260</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>167331</v>
+        <v>167133</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>315248</v>
+        <v>317841</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>502188</v>
+        <v>502709</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>841793</v>
+        <v>839107</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>386885</v>
+        <v>386196</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>573975</v>
+        <v>576115</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>939801</v>
+        <v>939448</v>
       </c>
     </row>
     <row r="24">
